--- a/Employee_Reports21/Rizardo Villalobos Q0048.xlsx
+++ b/Employee_Reports21/Rizardo Villalobos Q0048.xlsx
@@ -548,11 +548,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -584,11 +584,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
